--- a/biology/Botanique/Copernicia/Copernicia.xlsx
+++ b/biology/Botanique/Copernicia/Copernicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copernicia est un genre de la famille des palmiers ou Arécacées. Il comprend des espèces appelées communément palmiers à cire. Le genre a été nommé ainsi par le botaniste Carl Friedrich Philipp von Martius, en 1837, en hommage à l'astronome polonais Nicolas Copernic.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
-Ce genre  partage cette tribu (des «non encore placés») avec six autres genres :  Acoelorrhaphe,  Brahea,  Colpothrinax,  Pritchardia,  Serenoa,  Washingtonia [1].
+Ce genre  partage cette tribu (des «non encore placés») avec six autres genres :  Acoelorrhaphe,  Brahea,  Colpothrinax,  Pritchardia,  Serenoa,  Washingtonia .
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les stipes sont solitaires et atteignent des tailles variables. Le haut du tronc, sous la couronne est parfois recouvert d'une jupe formée par les feuilles desséchées.
 Les feuilles en éventail sont recouvertes de cire. Les pétioles sont de longueur variable, parfois absents. Ils sont recouverts d'épines à la base.</t>
@@ -575,7 +591,9 @@
           <t>Habitat et milieu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur habitat naturel se trouve en Amérique du Sud, à Haïti et à Cuba. Les espèces sont souvent endémiques, et localisées sur de petits territoires. Elles poussent dans des savanes et forêts. Certaines sont très exigeantes quant à la nature du sol (ex : sol contenant du sillicate).
 </t>
@@ -606,7 +624,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le palmier carnauba, Copernicia prunifera, qui est une plante native du Nord-Est du Brésil, produit une cire, appelée cire de carnauba, qui est récoltée sur les feuilles des arbres. Cette cire donne lieu à de nombreuses applications. Elle est utilisée dans des produits pour polir les voitures, les chaussures, le sol, et elle est souvent mélangée avec de la cire d'abeille pour diverses applications.
 Elle est aussi l'un des principaux ingrédients de la wax utilisée par les surfers. Elle est alors combinée avec de l'huile de coco.
@@ -639,7 +659,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le genre comprend 22 espèces, hors des variétés et hybrides:
 Copernicia alba Morong, Ann. New York Acad. Sci. 7: 246 (1893).
@@ -691,7 +713,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Statut des espèces menacées ou vulnérables du genre selon la Liste rouge de l'UICN (version 2.3) :
 Copernicia baileyana : LR.
@@ -726,7 +750,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) William J. Baker et John Dransfield, « Beyond Genera Palmarum : progress and prospects in palm systematics », Botanical Journal of the Linnean Society, vol. 182, no 2,‎ octobre 2016, p. 207–233 (DOI 10.1111/boj.12401, lire en ligne, consulté le 10 janvier 2021)
